--- a/ExcelDashboard_4 projects/US_Music_Revenues.xlsx
+++ b/ExcelDashboard_4 projects/US_Music_Revenues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Author Drive (E. Ruiz)\Excel Dashboard Design\Course Resources\FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesoto/Desktop/Maven_Analytics/ExcelDashboard_4 projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC10170-5587-489C-925F-FE6E85208CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570BE9FC-72D3-6E46-9957-280DE8570218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFF487DA-44BD-4567-8156-BC827995C18F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="20120" xr2:uid="{BFF487DA-44BD-4567-8156-BC827995C18F}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Year</t>
   </si>
@@ -49,139 +49,16 @@
     <t>1973</t>
   </si>
   <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
     <t>1980</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1989</t>
   </si>
   <si>
     <t>1990</t>
   </si>
   <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
     <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
   </si>
   <si>
     <t>2019</t>
@@ -260,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -274,6 +151,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -289,6 +167,1936 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="1" algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Digital formats </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:t>dominate the music industry now</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr lvl="1" algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050"/>
+              <a:t>but revenue are half of what they were in their peak</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7312647800643586E-2"/>
+          <c:y val="1.1835665052542898E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="1" algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.517163363603931E-2"/>
+          <c:y val="0.16213393313128827"/>
+          <c:w val="0.85384649973168836"/>
+          <c:h val="0.76374032178097873"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Digital</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$A$3:$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$3:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>257.687097935</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1433.2762380950001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2397.9257008929999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3286.9128625170001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3574.0421838059997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3848.1361462129998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3927.7823848009998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4267.3336869119994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4724.9875493379996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5016.1496850189997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4938.3643670599995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5229.9160621519995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6419.3082882140006</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7614.9487421480007</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8848.8309682749968</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9963.2993157400015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2812-DE4B-8E0F-8072D553C722}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Physical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$A$3:$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$3:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>11611.664554053999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11407.073081135999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11350.125362453</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12298.045249560999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14769.043326733001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16199.713647238999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12943.075805786</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11423.896529126001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11176.626537954</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9613.233059066999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9719.0729397599989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10665.990355150001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10365.275673792001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10825.067882299998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12521.791795775</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13516.972425191001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13565.284124999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14750.841642694002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14705.345590309</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16443.683307198</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17774.973122492</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20818.277165992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20667.788301180997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20422.904439771002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19491.735685981002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21505.302198773999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22381.036301919998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21265.703663762997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19836.009437040997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17926.117450805999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16470.980113042999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16450.154250397001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14654.788095237</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12514.765229166</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9848.5292083929999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6847.7836040370003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5483.8204253809999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4295.4587394979999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3842.7143225489999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3087.1669741649998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2703.931512399</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2291.405375374</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2008.669415779</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1653.5249719180001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1559.7539952669999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1175.7190394500001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1148.28217756</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2812-DE4B-8E0F-8072D553C722}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="869933472"/>
+        <c:axId val="869935200"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="869933472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="869935200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="869935200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Revenue</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.3923851570140559E-3"/>
+              <c:y val="0.15031015034090442"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;##0,\ &quot;B&quot;" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="869933472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>21981</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>35658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>42008</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1CB41C-4782-F82D-E06D-B2A5B405C49E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.37678</cdr:x>
+      <cdr:y>0.73597</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.53428</cdr:x>
+      <cdr:y>0.80426</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3713228F-B321-D331-3624-941B0CABB9B5}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2547327" y="3158881"/>
+          <a:ext cx="1064846" cy="293077"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PHYSICAL</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.80016</cdr:x>
+      <cdr:y>0.81336</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95766</cdr:x>
+      <cdr:y>0.88164</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE40256E-EA85-5E26-CEF6-5E6837F6CD1F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5409712" y="3491034"/>
+          <a:ext cx="1064846" cy="293077"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DIGITAL</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.53284</cdr:x>
+      <cdr:y>0.19199</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.62532</cdr:x>
+      <cdr:y>0.25572</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E380A4-1E4C-CB90-3B90-5CA227F1E0A7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3602401" y="824035"/>
+          <a:ext cx="625231" cy="273538"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>$22.3B</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.88252</cdr:x>
+      <cdr:y>0.5334</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.975</cdr:x>
+      <cdr:y>0.59713</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DB62B2-82D3-EEAC-0C6D-2BE578BBC995}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5966554" y="2289420"/>
+          <a:ext cx="625231" cy="273538"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>$11.1B</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.61376</cdr:x>
+      <cdr:y>0.32855</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.6152</cdr:x>
+      <cdr:y>0.92489</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1571B18E-C623-C04A-9C99-A8B43565A676}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="4149480" y="1410188"/>
+          <a:ext cx="9769" cy="2559539"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.65277</cdr:x>
+      <cdr:y>0.25572</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.82617</cdr:x>
+      <cdr:y>0.31945</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD81ED7E-85E2-A2AC-5EC7-6FAB290B016B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4413247" y="1097574"/>
+          <a:ext cx="1172310" cy="273538"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>iTunes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>launches</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.61541</cdr:x>
+      <cdr:y>0.28224</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.65711</cdr:x>
+      <cdr:y>0.31717</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="15" name="Freeform 14">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66458619-A8AE-B1F7-D279-44FA6E1F5239}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4160695" y="1211413"/>
+          <a:ext cx="281862" cy="149929"/>
+        </a:xfrm>
+        <a:custGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 18093 w 281862"/>
+            <a:gd name="connsiteY0" fmla="*/ 149929 h 149929"/>
+            <a:gd name="connsiteX1" fmla="*/ 27862 w 281862"/>
+            <a:gd name="connsiteY1" fmla="*/ 13160 h 149929"/>
+            <a:gd name="connsiteX2" fmla="*/ 281862 w 281862"/>
+            <a:gd name="connsiteY2" fmla="*/ 13160 h 149929"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="281862" h="149929">
+              <a:moveTo>
+                <a:pt x="18093" y="149929"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="996" y="92942"/>
+                <a:pt x="-16100" y="35955"/>
+                <a:pt x="27862" y="13160"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="71824" y="-9635"/>
+                <a:pt x="176843" y="1762"/>
+                <a:pt x="281862" y="13160"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.70768</cdr:x>
+      <cdr:y>0.48105</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.70768</cdr:x>
+      <cdr:y>0.94537</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="16" name="Straight Connector 15">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E21757CD-2221-F644-1B86-B88E6BAE8691}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4784480" y="2064727"/>
+          <a:ext cx="0" cy="1992923"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.70645</cdr:x>
+      <cdr:y>0.43019</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.74814</cdr:x>
+      <cdr:y>0.46512</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="18" name="Freeform 17">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73488864-2415-CAA2-F6D9-28DFF4A92492}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4776155" y="1846413"/>
+          <a:ext cx="281862" cy="149929"/>
+        </a:xfrm>
+        <a:custGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 18093 w 281862"/>
+            <a:gd name="connsiteY0" fmla="*/ 149929 h 149929"/>
+            <a:gd name="connsiteX1" fmla="*/ 27862 w 281862"/>
+            <a:gd name="connsiteY1" fmla="*/ 13160 h 149929"/>
+            <a:gd name="connsiteX2" fmla="*/ 281862 w 281862"/>
+            <a:gd name="connsiteY2" fmla="*/ 13160 h 149929"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="281862" h="149929">
+              <a:moveTo>
+                <a:pt x="18093" y="149929"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="996" y="92942"/>
+                <a:pt x="-16100" y="35955"/>
+                <a:pt x="27862" y="13160"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="71824" y="-9635"/>
+                <a:pt x="176843" y="1762"/>
+                <a:pt x="281862" y="13160"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.7438</cdr:x>
+      <cdr:y>0.40139</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9172</cdr:x>
+      <cdr:y>0.46512</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA146521-A696-E229-1B18-38021DBBA667}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5028709" y="1722804"/>
+          <a:ext cx="1172310" cy="273538"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Spotify</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>launches</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -588,19 +2396,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DE6A42-343C-49D6-8693-490F71C2E6C9}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +2421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -622,10 +2432,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
       <c r="B4" s="3">
         <v>11407.073081135999</v>
       </c>
@@ -633,10 +2441,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
       <c r="B5" s="3">
         <v>11350.125362453</v>
       </c>
@@ -644,21 +2450,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
       <c r="B6" s="3">
         <v>12298.045249560999</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
       <c r="B7" s="3">
         <v>14769.043326733001</v>
       </c>
@@ -666,10 +2469,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
       <c r="B8" s="3">
         <v>16199.713647238999</v>
       </c>
@@ -677,10 +2478,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
       <c r="B9" s="3">
         <v>12943.075805786</v>
       </c>
@@ -688,9 +2487,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B10" s="3">
         <v>11423.896529126001</v>
@@ -699,10 +2498,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
       <c r="B11" s="3">
         <v>11176.626537954</v>
       </c>
@@ -710,10 +2507,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
       <c r="B12" s="3">
         <v>9613.233059066999</v>
       </c>
@@ -721,10 +2516,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
       <c r="B13" s="3">
         <v>9719.0729397599989</v>
       </c>
@@ -732,10 +2525,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
       <c r="B14" s="3">
         <v>10665.990355150001</v>
       </c>
@@ -743,10 +2534,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
       <c r="B15" s="3">
         <v>10365.275673792001</v>
       </c>
@@ -754,10 +2543,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
       <c r="B16" s="3">
         <v>10825.067882299998</v>
       </c>
@@ -765,10 +2552,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
       <c r="B17" s="3">
         <v>12521.791795775</v>
       </c>
@@ -776,10 +2561,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
       <c r="B18" s="3">
         <v>13516.972425191001</v>
       </c>
@@ -787,10 +2570,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
       <c r="B19" s="3">
         <v>13565.284124999998</v>
       </c>
@@ -798,9 +2579,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B20" s="3">
         <v>14750.841642694002</v>
@@ -809,10 +2590,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
-      </c>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
       <c r="B21" s="3">
         <v>14705.345590309</v>
       </c>
@@ -820,10 +2599,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
       <c r="B22" s="3">
         <v>16443.683307198</v>
       </c>
@@ -831,10 +2608,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
       <c r="B23" s="3">
         <v>17774.973122492</v>
       </c>
@@ -842,10 +2617,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
       <c r="B24" s="3">
         <v>20818.277165992</v>
       </c>
@@ -853,10 +2626,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
       <c r="B25" s="3">
         <v>20667.788301180997</v>
       </c>
@@ -864,10 +2635,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
       <c r="B26" s="3">
         <v>20422.904439771002</v>
       </c>
@@ -875,10 +2644,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
       <c r="B27" s="3">
         <v>19491.735685981002</v>
       </c>
@@ -886,10 +2653,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
       <c r="B28" s="3">
         <v>21505.302198773999</v>
       </c>
@@ -897,10 +2662,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>29</v>
-      </c>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
       <c r="B29" s="3">
         <v>22381.036301919998</v>
       </c>
@@ -908,9 +2671,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B30" s="3">
         <v>21265.703663762997</v>
@@ -919,10 +2682,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>31</v>
-      </c>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
       <c r="B31" s="3">
         <v>19836.009437040997</v>
       </c>
@@ -930,10 +2691,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>32</v>
-      </c>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
       <c r="B32" s="3">
         <v>17926.117450805999</v>
       </c>
@@ -941,10 +2700,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>33</v>
-      </c>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
       <c r="B33" s="3">
         <v>16470.980113042999</v>
       </c>
@@ -952,10 +2709,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>34</v>
-      </c>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
       <c r="B34" s="3">
         <v>16450.154250397001</v>
       </c>
@@ -963,10 +2718,8 @@
         <v>257.687097935</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
       <c r="B35" s="3">
         <v>14654.788095237</v>
       </c>
@@ -974,10 +2727,8 @@
         <v>1433.2762380950001</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
       <c r="B36" s="3">
         <v>12514.765229166</v>
       </c>
@@ -985,10 +2736,8 @@
         <v>2397.9257008929999</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>37</v>
-      </c>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
       <c r="B37" s="3">
         <v>9848.5292083929999</v>
       </c>
@@ -996,10 +2745,8 @@
         <v>3286.9128625170001</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
       <c r="B38" s="3">
         <v>6847.7836040370003</v>
       </c>
@@ -1007,10 +2754,8 @@
         <v>3574.0421838059997</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>39</v>
-      </c>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
       <c r="B39" s="3">
         <v>5483.8204253809999</v>
       </c>
@@ -1018,9 +2763,9 @@
         <v>3848.1361462129998</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B40" s="3">
         <v>4295.4587394979999</v>
@@ -1029,10 +2774,8 @@
         <v>3927.7823848009998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>41</v>
-      </c>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
       <c r="B41" s="3">
         <v>3842.7143225489999</v>
       </c>
@@ -1040,10 +2783,8 @@
         <v>4267.3336869119994</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
       <c r="B42" s="3">
         <v>3087.1669741649998</v>
       </c>
@@ -1051,10 +2792,8 @@
         <v>4724.9875493379996</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>43</v>
-      </c>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
       <c r="B43" s="3">
         <v>2703.931512399</v>
       </c>
@@ -1062,10 +2801,8 @@
         <v>5016.1496850189997</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>44</v>
-      </c>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
       <c r="B44" s="3">
         <v>2291.405375374</v>
       </c>
@@ -1073,10 +2810,8 @@
         <v>4938.3643670599995</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>45</v>
-      </c>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
       <c r="B45" s="3">
         <v>2008.669415779</v>
       </c>
@@ -1084,10 +2819,8 @@
         <v>5229.9160621519995</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>46</v>
-      </c>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
       <c r="B46" s="3">
         <v>1653.5249719180001</v>
       </c>
@@ -1095,10 +2828,8 @@
         <v>6419.3082882140006</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>47</v>
-      </c>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
       <c r="B47" s="3">
         <v>1559.7539952669999</v>
       </c>
@@ -1106,10 +2837,8 @@
         <v>7614.9487421480007</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>48</v>
-      </c>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
       <c r="B48" s="3">
         <v>1175.7190394500001</v>
       </c>
@@ -1117,9 +2846,9 @@
         <v>8848.8309682749968</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B49" s="3">
         <v>1148.28217756</v>
@@ -1131,5 +2860,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>